--- a/Data/Output/OutputReport.xlsx
+++ b/Data/Output/OutputReport.xlsx
@@ -525,150 +525,6 @@
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="A12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="A13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="A14" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="A15" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="A16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="A17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="A18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="A19" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
